--- a/BinarySearchPesymistic/resultBinarySearchPesymistic.xlsx
+++ b/BinarySearchPesymistic/resultBinarySearchPesymistic.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1ABAA-74B4-4513-821C-4BA4377B36DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091F1E56-C3C6-4A0F-92D7-B1691DAF4663}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rozmiar do czasu" sheetId="13" r:id="rId1"/>
-    <sheet name="rozmiar do iteracji petli" sheetId="14" r:id="rId2"/>
+    <sheet name="Rozmiar do iteracji" sheetId="15" r:id="rId1"/>
+    <sheet name="Rozmiar do czasu" sheetId="16" r:id="rId2"/>
     <sheet name="resultBinarySearchPesymistic" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -614,7 +614,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[resultBinarySearchPesymistic.xlsx]rozmiar do czasu!Tabela przestawna12</c:name>
+    <c:name>[resultBinarySearchPesymistic.xlsx]Rozmiar do iteracji!Tabela przestawna2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -639,11 +639,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>rozmiar</a:t>
+              <a:t>Rozmiar</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> do czasu</a:t>
+              <a:t> do iteracji</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
@@ -706,7 +706,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'rozmiar do czasu'!$B$3</c:f>
+              <c:f>'Rozmiar do iteracji'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,7 +729,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'rozmiar do czasu'!$A$4:$A$14</c:f>
+              <c:f>'Rozmiar do iteracji'!$A$4:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -767,39 +767,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'rozmiar do czasu'!$B$4:$B$14</c:f>
+              <c:f>'Rozmiar do iteracji'!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,7 +807,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-199A-43B5-B4B9-3419B9C1F9C2}"/>
+              <c16:uniqueId val="{00000000-EE58-428C-B3D6-68364B7DF720}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -820,11 +820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233461839"/>
-        <c:axId val="321796447"/>
+        <c:axId val="1790150975"/>
+        <c:axId val="1838248207"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233461839"/>
+        <c:axId val="1790150975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +867,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321796447"/>
+        <c:crossAx val="1838248207"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -875,7 +875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321796447"/>
+        <c:axId val="1838248207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +926,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233461839"/>
+        <c:crossAx val="1790150975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,7 +1043,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[resultBinarySearchPesymistic.xlsx]rozmiar do iteracji petli!Tabela przestawna13</c:name>
+    <c:name>[resultBinarySearchPesymistic.xlsx]Rozmiar do czasu!Tabela przestawna3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1068,11 +1068,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>rozmiar</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> do iteracji petli</a:t>
+              <a:t>Rozmiar do czasu</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1134,7 +1130,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'rozmiar do iteracji petli'!$B$3</c:f>
+              <c:f>'Rozmiar do czasu'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1157,7 +1153,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'rozmiar do iteracji petli'!$A$4:$A$14</c:f>
+              <c:f>'Rozmiar do czasu'!$A$4:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1195,39 +1191,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'rozmiar do iteracji petli'!$B$4:$B$14</c:f>
+              <c:f>'Rozmiar do czasu'!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1235,7 +1231,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-54C4-43E8-AAF4-1337D67230D8}"/>
+              <c16:uniqueId val="{00000000-3281-4F3C-AD99-38AF26BDB758}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1248,11 +1244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="315480847"/>
-        <c:axId val="315777311"/>
+        <c:axId val="1838205423"/>
+        <c:axId val="1791993231"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315480847"/>
+        <c:axId val="1838205423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1291,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315777311"/>
+        <c:crossAx val="1791993231"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1303,7 +1299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315777311"/>
+        <c:axId val="1791993231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,7 +1350,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315480847"/>
+        <c:crossAx val="1838205423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,7 +2585,7 @@
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46E7EB4-3419-4A5E-A5B4-227C3218A069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91D158C-0FF5-4C25-8222-E1023369CC06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,13 +2611,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
@@ -2630,7 +2626,7 @@
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E69F1A4-1BCD-4161-8E56-30661CF4E6DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC15AE2-5625-4532-80FF-0F66BC774F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2648,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Denis Grabiszewski" refreshedDate="43563.916986574077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{00000000-000A-0000-FFFF-FFFF2E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Denis Grabiszewski" refreshedDate="43564.896629745374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{F1C9D2F9-2381-4626-97A3-4C3A5614E059}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E11" sheet="resultBinarySearchPesymistic"/>
   </cacheSource>
@@ -2681,7 +2677,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="oper_count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="25" maxValue="28"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="56"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2693,82 +2689,173 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
   <r>
     <x v="0"/>
     <n v="26843547"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="25"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
     <n v="53687092"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="26"/>
+    <n v="52"/>
   </r>
   <r>
     <x v="2"/>
     <n v="80530637"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="27"/>
+    <n v="54"/>
   </r>
   <r>
     <x v="3"/>
     <n v="107374182"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="27"/>
+    <n v="54"/>
   </r>
   <r>
     <x v="4"/>
     <n v="134217727"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="27"/>
+    <n v="54"/>
   </r>
   <r>
     <x v="5"/>
     <n v="161061272"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="28"/>
+    <n v="56"/>
   </r>
   <r>
     <x v="6"/>
     <n v="187904817"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="28"/>
+    <n v="56"/>
   </r>
   <r>
     <x v="7"/>
     <n v="214748362"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="28"/>
+    <n v="56"/>
   </r>
   <r>
     <x v="8"/>
     <n v="241591907"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="28"/>
+    <n v="56"/>
   </r>
   <r>
     <x v="9"/>
     <n v="268435452"/>
     <n v="-1"/>
     <n v="0"/>
-    <n v="28"/>
+    <n v="56"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tabela przestawna12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BC82BB6-3C76-4822-ABBF-D665C6986B99}" name="Tabela przestawna2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma z oper_count" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47B1B350-D906-4F25-A619-DF29404820D9}" name="Tabela przestawna3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -2834,97 +2921,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Suma z time" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela przestawna13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma z oper_count" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -3245,11 +3241,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3188F7-8473-44B6-B7A5-BD4C5D5F8322}">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>26843545</v>
+      </c>
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>53687090</v>
+      </c>
+      <c r="B5" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>80530635</v>
+      </c>
+      <c r="B6" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>107374180</v>
+      </c>
+      <c r="B7" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>134217725</v>
+      </c>
+      <c r="B8" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>161061270</v>
+      </c>
+      <c r="B9" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>187904815</v>
+      </c>
+      <c r="B10" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>214748360</v>
+      </c>
+      <c r="B11" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>241591905</v>
+      </c>
+      <c r="B12" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>268435450</v>
+      </c>
+      <c r="B13" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>544</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44AFE9F-385B-4084-86F5-628AC6CD7E66}">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,122 +3464,6 @@
       </c>
       <c r="B14" s="1">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>26843545</v>
-      </c>
-      <c r="B4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>53687090</v>
-      </c>
-      <c r="B5" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>80530635</v>
-      </c>
-      <c r="B6" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>107374180</v>
-      </c>
-      <c r="B7" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>134217725</v>
-      </c>
-      <c r="B8" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>161061270</v>
-      </c>
-      <c r="B9" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>187904815</v>
-      </c>
-      <c r="B10" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>214748360</v>
-      </c>
-      <c r="B11" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>241591905</v>
-      </c>
-      <c r="B12" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>268435450</v>
-      </c>
-      <c r="B13" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3539,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3556,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3607,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3624,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3658,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
